--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2530.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2530.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.595748298498392</v>
+        <v>2.046200752258301</v>
       </c>
       <c r="B1">
-        <v>3.668125461465126</v>
+        <v>2.080154895782471</v>
       </c>
       <c r="C1">
-        <v>3.133121397917791</v>
+        <v>2.244231939315796</v>
       </c>
       <c r="D1">
-        <v>1.586117171657189</v>
+        <v>3.057664155960083</v>
       </c>
       <c r="E1">
-        <v>1.544317940760468</v>
+        <v>2.913592338562012</v>
       </c>
     </row>
   </sheetData>
